--- a/LF/TAS/Benin/Apr 2023/bj_lf_tas3_202304_2_partcipants.xlsx
+++ b/LF/TAS/Benin/Apr 2023/bj_lf_tas3_202304_2_partcipants.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\TAS\Benin\Apr 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E381D4B4-0BD4-4EFA-B6EB-A702711D19BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9335" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
   <si>
     <t>type</t>
   </si>
@@ -180,6 +174,15 @@
     <t>Entrer l'âge du participant (en années)</t>
   </si>
   <si>
+    <t>. &gt;= 5 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t>The age must be between 5 and 11 years</t>
+  </si>
+  <si>
+    <t>L'age doit être compris entre 5 et 11 ans</t>
+  </si>
+  <si>
     <t>p_how_long_lived</t>
   </si>
   <si>
@@ -312,29 +315,26 @@
     <t>default_language</t>
   </si>
   <si>
+    <t>(2023 Avril) - 2. TAS Formulaire Participants V1.1</t>
+  </si>
+  <si>
+    <t>bj_lf_tas3_202304_2_partcipants_v1_1</t>
+  </si>
+  <si>
     <t>French</t>
-  </si>
-  <si>
-    <t>(2023 Avril) - 2. Formulaire Participants V1</t>
-  </si>
-  <si>
-    <t>bj_lf_tas3_202304_2_partcipants_v1</t>
-  </si>
-  <si>
-    <t>. &gt;= 6 and . &lt;= 7</t>
-  </si>
-  <si>
-    <t>The age must be between 6 and 7 years</t>
-  </si>
-  <si>
-    <t>L'age doit être compris entre 6 et 7 ans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,10 +343,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,14 +362,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,38 +370,382 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -418,89 +755,375 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.149937437055574"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.149937437055574"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.149937437055574"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
+        <color theme="0" tint="-0.149937437055574"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -758,42 +1381,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="42.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="41.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="47.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="47.375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="6" customWidth="1"/>
-    <col min="9" max="10" width="29.5" style="6" customWidth="1"/>
-    <col min="11" max="11" width="20.375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.75" style="6" customWidth="1"/>
-    <col min="14" max="14" width="35.375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="13.875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="36.625" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="6"/>
+    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="29.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="35.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="36.625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="37.5">
+    <row r="1" s="4" customFormat="1" ht="18" spans="1:17">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -839,395 +1463,398 @@
       <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="7" customFormat="1" ht="63">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="4" customFormat="1" ht="62.4" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="7" customFormat="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="4" customFormat="1" spans="1:15">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11" t="s">
+      <c r="F3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:17" s="7" customFormat="1">
-      <c r="A4" s="7" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:15">
+      <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="F4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:17" s="7" customFormat="1">
-      <c r="A5" s="7" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:15">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11" t="s">
+      <c r="F5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" s="7" customFormat="1">
-      <c r="A6" s="7" t="s">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:15">
+      <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11" t="s">
+      <c r="F6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:17" s="7" customFormat="1">
-      <c r="A7" s="7" t="s">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:16">
+      <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="1:17" s="7" customFormat="1">
-      <c r="A8" s="7" t="s">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:16">
+      <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="K8" s="11" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="K8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="31.2" spans="1:16">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:17" s="7" customFormat="1" ht="31.5">
-      <c r="A10" s="7" t="s">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="31.2" spans="1:13">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="H10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="F10" s="9"/>
+      <c r="H10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="7" customFormat="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" s="4" customFormat="1" spans="1:13">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="H11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="F11" s="9"/>
+      <c r="H11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="7" customFormat="1" ht="47.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="4" customFormat="1" ht="46.8" spans="1:17">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="K12" s="7" t="s">
+      <c r="B12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="K12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="11" t="s">
+      <c r="L12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="7" customFormat="1" ht="31.5">
-      <c r="A13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
+    <row r="13" s="4" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="A13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="K13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:17" s="7" customFormat="1">
-      <c r="A14" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="F13" s="9"/>
+      <c r="K13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:6">
+      <c r="A14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:17" s="7" customFormat="1">
-      <c r="A15" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="7" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="1:6">
+      <c r="A15" s="4" t="s">
         <v>80</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="39.625" customWidth="1"/>
@@ -1236,125 +1863,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>83</v>
+      <c r="E1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:C52">
+  <sortState ref="A7:C52">
     <sortCondition ref="B7:B52"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="54.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="6"/>
+    <col min="1" max="1" width="54.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>95</v>
+      <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>96</v>
+      <c r="A2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>